--- a/links.xlsx
+++ b/links.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t xml:space="preserve">url</t>
   </si>
@@ -45,13 +45,13 @@
     <t xml:space="preserve">div</t>
   </si>
   <si>
+    <t xml:space="preserve">entry-title</t>
+  </si>
+  <si>
     <t xml:space="preserve">entry-content notopmargin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.dbe.com.tr/tr/kurumsal/11/ekip-uyumunu-saglamak-icin-is-dunyasinda-kisilik-testleri-kullanimi/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry-title</t>
   </si>
   <si>
     <t xml:space="preserve">Ürün Adı </t>
@@ -466,69 +466,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F310"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -558,10 +561,10 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C2 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
@@ -1170,10 +1173,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.54"/>
   </cols>
